--- a/data/administracion_de_tribunales/OP_LEY148Genero.xlsx
+++ b/data/administracion_de_tribunales/OP_LEY148Genero.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\orlando.hernandez\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50CC88C1-BE4C-490C-BBA4-766E9184E3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020-2021" sheetId="4" r:id="rId1"/>
@@ -17,19 +18,36 @@
     <sheet name="2022-2023" sheetId="2" r:id="rId3"/>
     <sheet name="2023-2024" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="8">
   <si>
     <t>Sexo</t>
+  </si>
+  <si>
+    <t>Parte peticionaria</t>
+  </si>
+  <si>
+    <t>Parte peticionada</t>
   </si>
   <si>
     <t xml:space="preserve">Hombre </t>
@@ -38,26 +56,20 @@
     <t>Mujer</t>
   </si>
   <si>
+    <t>Intersexo</t>
+  </si>
+  <si>
     <t>No informa</t>
   </si>
   <si>
     <t>Total</t>
   </si>
-  <si>
-    <t>Parte peticionaria</t>
-  </si>
-  <si>
-    <t>Parte peticionada</t>
-  </si>
-  <si>
-    <t>Intersexo</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,7 +108,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,32 +388,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>7</v>
@@ -410,9 +424,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>122</v>
@@ -421,27 +435,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
         <v>33</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <f>SUM(B2:B4)</f>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <f>SUM(B2:B5)</f>
         <v>162</v>
       </c>
-      <c r="C5">
-        <f>SUM(C2:C4)</f>
+      <c r="C6">
+        <f>SUM(C2:C5)</f>
         <v>162</v>
       </c>
     </row>
@@ -451,34 +470,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>30</v>
@@ -487,9 +506,9 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>213</v>
@@ -498,27 +517,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
         <v>18</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <f>SUM(B2:B4)</f>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <f>SUM(B2:B5)</f>
         <v>261</v>
       </c>
-      <c r="C5">
-        <f>SUM(C2:C4)</f>
+      <c r="C6">
+        <f>SUM(C2:C5)</f>
         <v>261</v>
       </c>
     </row>
@@ -528,68 +552,70 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>236</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>30</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>9</v>
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <f>SUM(B2:B5)</f>
@@ -607,63 +633,70 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>295</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <f>SUM(B2:B4)</f>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <f>SUM(B2:B5)</f>
         <v>333</v>
       </c>
-      <c r="C5">
-        <f>SUM(C2:C4)</f>
+      <c r="C6">
+        <f>SUM(C2:C5)</f>
         <v>0</v>
       </c>
     </row>
